--- a/script_master_data_beltran/ficherosExcelOrigen/DED-BackStage_Adopcion IA_v1a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-BackStage_Adopcion IA_v1a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6003305\Documents\tarea\estimacionIA_jdk21\script_master_data_beltran\ficherosExcelOrigen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7D4937-EB02-4F7E-9631-54A489F9B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB1DB1A-C143-4EB3-B473-CE93EDE09577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="19200" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -2033,11 +2033,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2051,12 +2057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2543,7 +2543,7 @@
   <dimension ref="B1:BR192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AQ27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
@@ -14861,7 +14861,7 @@
       <c r="B47" s="65"/>
     </row>
     <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="180" t="s">
+      <c r="D49" s="184" t="s">
         <v>182</v>
       </c>
       <c r="E49" s="181"/>
@@ -14870,7 +14870,7 @@
       <c r="H49" s="181"/>
       <c r="I49" s="181"/>
       <c r="J49" s="182"/>
-      <c r="K49" s="185" t="s">
+      <c r="K49" s="187" t="s">
         <v>183</v>
       </c>
       <c r="L49" s="181"/>
@@ -14880,7 +14880,7 @@
       <c r="P49" s="181"/>
       <c r="Q49" s="181"/>
       <c r="R49" s="182"/>
-      <c r="S49" s="186" t="s">
+      <c r="S49" s="188" t="s">
         <v>184</v>
       </c>
       <c r="T49" s="181"/>
@@ -14890,7 +14890,7 @@
       <c r="X49" s="181"/>
       <c r="Y49" s="181"/>
       <c r="Z49" s="182"/>
-      <c r="AA49" s="187" t="s">
+      <c r="AA49" s="189" t="s">
         <v>185</v>
       </c>
       <c r="AB49" s="181"/>
@@ -14900,7 +14900,7 @@
       <c r="AF49" s="181"/>
       <c r="AG49" s="181"/>
       <c r="AH49" s="182"/>
-      <c r="AI49" s="183" t="s">
+      <c r="AI49" s="185" t="s">
         <v>186</v>
       </c>
       <c r="AJ49" s="181"/>
@@ -14910,7 +14910,7 @@
       <c r="AN49" s="181"/>
       <c r="AO49" s="181"/>
       <c r="AP49" s="182"/>
-      <c r="AQ49" s="184" t="s">
+      <c r="AQ49" s="186" t="s">
         <v>187</v>
       </c>
       <c r="AR49" s="181"/>
@@ -14920,7 +14920,7 @@
       <c r="AV49" s="181"/>
       <c r="AW49" s="181"/>
       <c r="AX49" s="182"/>
-      <c r="AY49" s="189" t="s">
+      <c r="AY49" s="183" t="s">
         <v>188</v>
       </c>
       <c r="AZ49" s="181"/>
@@ -14930,7 +14930,7 @@
       <c r="BD49" s="181"/>
       <c r="BE49" s="181"/>
       <c r="BF49" s="182"/>
-      <c r="BG49" s="188" t="s">
+      <c r="BG49" s="180" t="s">
         <v>189</v>
       </c>
       <c r="BH49" s="181"/>

--- a/script_master_data_beltran/ficherosExcelOrigen/DED-BackStage_Adopcion IA_v1a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-BackStage_Adopcion IA_v1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6003305\Documents\tarea\estimacionIA_jdk21\script_master_data_beltran\ficherosExcelOrigen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB1DB1A-C143-4EB3-B473-CE93EDE09577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF6A2A-6986-4309-8517-3E338AD308E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,12 +765,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2543,10 +2544,10 @@
   <dimension ref="B1:BR192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AQ27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
+      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
